--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_13.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_13.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01362204551696777</v>
+        <v>0.000598907470703125</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004069805145263672</v>
+        <v>0.0005571842193603516</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005221366882324219</v>
+        <v>0.003853082656860352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (2, 1), (2, 0), (2, 2), (1, 3), (1, 1), (1, 0), (1, 2), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[3, 2], [2, 3], [2, 1], [2, 0], [2, 2], [1, 3], [1, 1], [1, 0], [1, 2], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -698,110 +698,120 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01821398735046387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.009446144104003906</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
